--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -8,17 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from FBOE" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from FBOE 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from FBOE 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from FBOE 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from FBOE 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from FBOE 6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -47,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>SundhedsplejeKontaktTyper</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -62,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-30T15:40:30+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -74,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -95,16 +93,49 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
-  </si>
-  <si>
-    <t>6c2a4f15-d775-47f3-9868-b26fbff9ff8b</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>d3c00541-f1d3-4c43-b5fc-16e8914ca1df</t>
+  </si>
+  <si>
+    <t>7d35a193-e808-4e77-b361-6c0d114d021f</t>
+  </si>
+  <si>
+    <t>b4bf6058-502a-4d64-bb8e-369661f43b47</t>
+  </si>
+  <si>
+    <t>563c4174-f451-4c87-8db8-8d5472ca7ff6</t>
+  </si>
+  <si>
+    <t>51f30d1c-d60e-4e3e-ac22-ec9712ea962d</t>
+  </si>
+  <si>
+    <t>58ff370b-a775-4bec-b24a-91604e0a5fe7</t>
+  </si>
+  <si>
+    <t>3f3e6489-31bd-44cf-9920-3c632868feb7</t>
+  </si>
+  <si>
+    <t>4b039ba1-4005-42e6-b672-09b81ad7578a</t>
+  </si>
+  <si>
+    <t>b30f139c-fac5-416e-b84a-a3429f0222c2</t>
+  </si>
+  <si>
+    <t>c06ed6f1-be9d-460e-a45e-34821bcbd533</t>
+  </si>
+  <si>
+    <t>d01bcb90-2b29-44f4-834c-191d6dd4a08a</t>
+  </si>
+  <si>
+    <t>dd766967-4d02-4c17-8ed3-021852785fdf</t>
+  </si>
+  <si>
+    <t>606c6585-444b-4ecd-885c-2ee59dc33f32</t>
+  </si>
+  <si>
+    <t>17f5f9fa-3e1c-42fe-9ef3-178bc7900f67</t>
   </si>
   <si>
     <t/>
@@ -114,21 +145,6 @@
   </si>
   <si>
     <t>http://fhir.kl.dk/term/CodeSystem/FBOE</t>
-  </si>
-  <si>
-    <t>4b039ba1-4005-42e6-b672-09b81ad7578a</t>
-  </si>
-  <si>
-    <t>b30f139c-fac5-416e-b84a-a3429f0222c2</t>
-  </si>
-  <si>
-    <t>9f3d853c-88d3-47e9-92a1-c7bbe0f9b4eb</t>
-  </si>
-  <si>
-    <t>606c6585-444b-4ecd-885c-2ee59dc33f32</t>
-  </si>
-  <si>
-    <t>17f5f9fa-3e1c-42fe-9ef3-178bc7900f67</t>
   </si>
 </sst>
 </file>
@@ -309,75 +325,75 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -387,7 +403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,315 +415,110 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-07-01T22:52:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
   </si>
   <si>
     <t>17f5f9fa-3e1c-42fe-9ef3-178bc7900f67</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -278,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -380,20 +383,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -415,110 +426,110 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-EncounterTypes.xlsx
+++ b/children/ValueSet-EncounterTypes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FBOE" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
